--- a/提出用_最新/doc/使用手順.xlsx
+++ b/提出用_最新/doc/使用手順.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\TomatoPJ\提出用_最新\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF60B03-5A95-48A0-8D6A-CBE529EBBE55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23715" windowHeight="11220"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要説明" sheetId="4" r:id="rId1"/>
@@ -17,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="49">
   <si>
     <t>使用手順書</t>
     <rPh sb="0" eb="2">
@@ -311,6 +317,61 @@
     </rPh>
     <rPh sb="30" eb="32">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・collections</t>
+  </si>
+  <si>
+    <t>・MeCab</t>
+  </si>
+  <si>
+    <t>・os</t>
+  </si>
+  <si>
+    <t>・pandas</t>
+  </si>
+  <si>
+    <t>・re</t>
+  </si>
+  <si>
+    <t>＜使用ライブラリ＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>＜使用ツール＞</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下のツール及び、pythonライブラリが使用可能であること。</t>
+    <rPh sb="0" eb="2">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>動作環境は以下の通りであること。</t>
+    <rPh sb="0" eb="2">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>トオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -318,8 +379,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,11 +477,19 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -441,7 +510,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2051" name="Picture 3"/>
+        <xdr:cNvPr id="2051" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -488,7 +563,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPr id="2052" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -535,7 +616,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPr id="2053" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -582,7 +669,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPr id="2054" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -629,7 +722,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2055" name="Picture 7"/>
+        <xdr:cNvPr id="2055" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -676,7 +775,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2056" name="Picture 8"/>
+        <xdr:cNvPr id="2056" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -754,7 +859,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -786,9 +891,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,6 +943,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -995,14 +1136,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1011,56 +1152,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.5">
+    <row r="1" spans="1:2" ht="25.8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>8</v>
       </c>
@@ -1073,157 +1214,203 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.25">
+    <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="B7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="C10" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="C11" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="C12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="3:3">
-      <c r="C25" t="s">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="3:3">
-      <c r="C27" t="s">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.875" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25">
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>26</v>
       </c>
@@ -1231,12 +1418,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>26</v>
       </c>
@@ -1244,32 +1431,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
         <v>37</v>
       </c>
@@ -1277,7 +1464,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
         <v>39</v>
       </c>
